--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DC6697-6A16-4C20-B423-9C8CB4E58FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81ED56E-F87A-490B-952D-84F5D00784E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="394">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1215,6 +1215,9 @@
   </si>
   <si>
     <t>MINI,PRO80E,PRO80,PRO80S,PRO130</t>
+  </si>
+  <si>
+    <t>PRO80E,PRO80,PRO80S,PRO130</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1297,10 +1300,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2087,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2985,7 +2984,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3052,7 @@
       <c r="Q1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4123,8 +4122,17 @@
       <c r="F41" t="s">
         <v>380</v>
       </c>
+      <c r="N41" t="s">
+        <v>358</v>
+      </c>
+      <c r="O41" t="s">
+        <v>393</v>
+      </c>
       <c r="Q41" t="s">
         <v>253</v>
+      </c>
+      <c r="R41" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -4163,8 +4171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K149" sqref="K149"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4190,14 +4198,14 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -4211,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4225,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -4239,7 +4247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -4253,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -4267,7 +4275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -4275,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -4289,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -4303,7 +4311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -4317,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4331,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -4345,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -4359,7 +4367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>288</v>
       </c>
@@ -4373,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>288</v>
       </c>
@@ -4387,7 +4395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>288</v>
       </c>
@@ -4415,7 +4423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>291</v>
       </c>
@@ -4429,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>291</v>
       </c>
@@ -4443,7 +4451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>291</v>
       </c>
@@ -4457,7 +4465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>291</v>
       </c>
@@ -4471,7 +4479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>291</v>
       </c>
@@ -4485,7 +4493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>291</v>
       </c>
@@ -4499,7 +4507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>292</v>
       </c>
@@ -4507,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -4515,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -4529,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -4543,7 +4551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -4557,7 +4565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>144</v>
       </c>
@@ -4571,7 +4579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -4585,7 +4593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4599,7 +4607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -4607,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>295</v>
       </c>
@@ -4621,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -4635,7 +4643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>295</v>
       </c>
@@ -4649,7 +4657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>295</v>
       </c>
@@ -4663,7 +4671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>295</v>
       </c>
@@ -4677,7 +4685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>295</v>
       </c>
@@ -4691,7 +4699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>159</v>
       </c>
@@ -4705,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -4719,7 +4727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -4733,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -4747,7 +4755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>177</v>
       </c>
@@ -4761,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -4775,7 +4783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -4789,7 +4797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>177</v>
       </c>
@@ -4803,7 +4811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -4817,7 +4825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -4831,7 +4839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -4845,7 +4853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>177</v>
       </c>
@@ -4859,7 +4867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -4873,7 +4881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>196</v>
       </c>
@@ -4887,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>196</v>
       </c>
@@ -4901,7 +4909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>196</v>
       </c>
@@ -4915,7 +4923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>196</v>
       </c>
@@ -4929,7 +4937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>196</v>
       </c>
@@ -4943,7 +4951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>196</v>
       </c>
@@ -4957,7 +4965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>196</v>
       </c>
@@ -4971,7 +4979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>196</v>
       </c>
@@ -4985,7 +4993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -4999,7 +5007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>196</v>
       </c>
@@ -5013,7 +5021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>196</v>
       </c>
@@ -5027,7 +5035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>297</v>
       </c>
@@ -5041,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>301</v>
       </c>
@@ -5055,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>301</v>
       </c>
@@ -5069,7 +5077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>302</v>
       </c>
@@ -5083,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>302</v>
       </c>
@@ -5097,7 +5105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>303</v>
       </c>
@@ -5125,7 +5133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>303</v>
       </c>
@@ -5139,7 +5147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>221</v>
       </c>
@@ -5153,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>221</v>
       </c>
@@ -5167,7 +5175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -5181,7 +5189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -5195,7 +5203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -5209,7 +5217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>232</v>
       </c>
@@ -5223,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>232</v>
       </c>
@@ -5237,7 +5245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>232</v>
       </c>
@@ -5251,7 +5259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>232</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>354</v>
       </c>
@@ -5279,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>354</v>
       </c>
@@ -5293,7 +5301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>313</v>
       </c>
@@ -5307,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>313</v>
       </c>
@@ -5321,7 +5329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>316</v>
       </c>
@@ -5335,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>316</v>
       </c>
@@ -5349,7 +5357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>321</v>
       </c>
@@ -5363,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>321</v>
       </c>
@@ -5377,7 +5385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>321</v>
       </c>
@@ -5391,7 +5399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>321</v>
       </c>
@@ -5405,7 +5413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>321</v>
       </c>
@@ -5419,7 +5427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>321</v>
       </c>
@@ -5433,7 +5441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>328</v>
       </c>
@@ -5447,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>330</v>
       </c>
@@ -5461,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>335</v>
       </c>
@@ -5475,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>335</v>
       </c>
@@ -5489,7 +5497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>335</v>
       </c>
@@ -5503,7 +5511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>341</v>
       </c>
@@ -5511,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>336</v>
       </c>
@@ -5525,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>336</v>
       </c>
@@ -5539,7 +5547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>342</v>
       </c>
@@ -5547,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>356</v>
       </c>
@@ -5561,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>356</v>
       </c>
@@ -5812,7 +5820,7 @@
         <v>358</v>
       </c>
       <c r="F114" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -5847,10 +5855,10 @@
       <c r="A117" t="s">
         <v>385</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117">
         <v>50</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" t="s">
         <v>386</v>
       </c>
       <c r="D117">

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0C91AC-8EC3-4479-9C72-E97C497E32D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF95BC27-C67B-4D01-AF04-2D82454380FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="397">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1227,9 +1227,6 @@
   </si>
   <si>
     <t>Sac_genislik_harici_CMSS_opts</t>
-  </si>
-  <si>
-    <t>Sac_genislik_CMSS</t>
   </si>
 </sst>
 </file>
@@ -2996,7 +2993,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4109,7 +4106,7 @@
         <v>396</v>
       </c>
       <c r="N40" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="O40" t="s">
         <v>140</v>
